--- a/data/trans_bre/P59A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.44241781106554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.848633553755791</v>
+        <v>-1.848633553755794</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2234734220090319</v>
@@ -649,7 +649,7 @@
         <v>0.2461697900178225</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0843328306115381</v>
+        <v>-0.08433283061153822</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.25637234439918</v>
+        <v>-14.27879259692773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.77623688062047</v>
+        <v>-9.432622571394432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.702258851552132</v>
+        <v>-5.232051092534951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.888056532615151</v>
+        <v>-10.07761962126522</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5359891218576148</v>
+        <v>-0.5652591827731559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3652341393956245</v>
+        <v>-0.3412947062021469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2713604881287593</v>
+        <v>-0.3040464926779102</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3708964052314042</v>
+        <v>-0.3655345354464596</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.506149665892679</v>
+        <v>4.553066740784033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.19242253397764</v>
+        <v>13.23297790203227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.13609716637693</v>
+        <v>11.75357830224896</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.106572844019174</v>
+        <v>5.897636822175278</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3557002023178564</v>
+        <v>0.2581388839062266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7660727517296245</v>
+        <v>0.7835141410465848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.155213646688149</v>
+        <v>1.172249809846527</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3758000113534854</v>
+        <v>0.3249507121371236</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.300519116245923</v>
+        <v>-1.873413879902341</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.588889050935257</v>
+        <v>-5.4390520045141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-28.62143865147677</v>
+        <v>-26.53167786862384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.438317985130589</v>
+        <v>-4.037418571766435</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1146369082735815</v>
+        <v>-0.09215429140110118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2011357909812412</v>
+        <v>-0.286553057239157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6699302353625927</v>
+        <v>-0.6591508928537005</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1607124181691328</v>
+        <v>-0.2039920499992229</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.1924554603619</v>
+        <v>16.53539838334816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.15367264483224</v>
+        <v>17.92285284318449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.898816501354609</v>
+        <v>-6.288934568761798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.41534745891721</v>
+        <v>12.76784454596463</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.430666139346719</v>
+        <v>1.45136439418942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.637325755101222</v>
+        <v>1.672387757280013</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1929217824189536</v>
+        <v>-0.2140971563323856</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.228442944089268</v>
+        <v>1.123777792294605</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.904328140215236</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-10.70985783056085</v>
+        <v>-10.70985783056084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.6886154325489967</v>
@@ -849,7 +849,7 @@
         <v>-0.09804070945088206</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4671779586772652</v>
+        <v>-0.4671779586772651</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.30171873898788</v>
+        <v>-23.52053900590726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.59083934266225</v>
+        <v>-13.63662183861324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.89801131240926</v>
+        <v>-12.69559039908674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.55384429368849</v>
+        <v>-20.64165228815122</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9103336501133908</v>
+        <v>-0.9136139656157828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5356402446054803</v>
+        <v>-0.5431858770497655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5454659523219697</v>
+        <v>-0.5592472195877408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.733180146422306</v>
+        <v>-0.7258008661392311</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.804984665926882</v>
+        <v>-2.6543539951872</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.562703548145878</v>
+        <v>6.132506944631367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.59328620536023</v>
+        <v>11.07555573619273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0596020101062464</v>
+        <v>-1.286371904878232</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.08205489882939079</v>
+        <v>-0.03399760920067526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3447885220574291</v>
+        <v>0.3115750120316682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9263185791952545</v>
+        <v>0.7045344460032765</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.01597366290978484</v>
+        <v>-0.04484309798149319</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.638211677229263</v>
+        <v>-9.203873565272316</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.476887631537548</v>
+        <v>-3.001042074027009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.136330159686191</v>
+        <v>-8.575779531912236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.256099928529354</v>
+        <v>-7.445962413669472</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5211123777709996</v>
+        <v>-0.5156990898358232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1128942791987277</v>
+        <v>-0.1485480205765479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3451802495679656</v>
+        <v>-0.3349210159272403</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3164123817395944</v>
+        <v>-0.3266620019417671</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9086330773256774</v>
+        <v>0.3782555251026677</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.996512931509876</v>
+        <v>10.52844721628897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.60608160827738</v>
+        <v>2.788800992346137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.985563678448354</v>
+        <v>4.016623104791816</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07706649977420223</v>
+        <v>0.02591256276384482</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6713405686670786</v>
+        <v>0.6633885545733652</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.135920929439499</v>
+        <v>0.1401949583416665</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2324150489368477</v>
+        <v>0.2466644322335922</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-2.174432352912908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.531087001768521</v>
+        <v>-1.531087001768527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.05923224636561938</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1226680246705345</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1146445528802858</v>
+        <v>-0.1146445528802862</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.330100141484596</v>
+        <v>-8.229503746595269</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.568545337096051</v>
+        <v>-7.537389582082094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.343957515610013</v>
+        <v>-8.201327109677697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.628506432354576</v>
+        <v>-8.100637684590971</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4642938337959279</v>
+        <v>-0.4732193395712606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4312525243199496</v>
+        <v>-0.4260261084966411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4003515050350488</v>
+        <v>-0.396845114845104</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4476815397317904</v>
+        <v>-0.4488991236407192</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.897185647035379</v>
+        <v>7.424877380318176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.504245637467027</v>
+        <v>4.820434978411439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.385033983026665</v>
+        <v>4.987187591617641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.709852511250102</v>
+        <v>3.819641236012462</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7921885698647251</v>
+        <v>0.7629811061751718</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3941371769908996</v>
+        <v>0.4532073725842125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.234326230410207</v>
+        <v>0.3686600624277541</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3903556502576025</v>
+        <v>0.416052513759922</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.927225468497695</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.554126332709353</v>
+        <v>2.554126332709352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>9.065286090044737</v>
@@ -1151,7 +1151,7 @@
         <v>1.152591940997495</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9204871735280986</v>
+        <v>0.9204871735280979</v>
       </c>
     </row>
     <row r="20">
@@ -1162,24 +1162,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.288455102651538</v>
+        <v>1.232706175050678</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.448176620049015</v>
+        <v>2.583885114635155</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1677189362940052</v>
+        <v>0.05209341160889809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.769019811695943</v>
+        <v>-2.365768773460768</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.01323735357498852</v>
+        <v>-0.06073294355534707</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5490242585906954</v>
+        <v>-0.4708776962531069</v>
       </c>
     </row>
     <row r="21">
@@ -1190,24 +1190,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.572660731860641</v>
+        <v>4.560816209917345</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.115807977007486</v>
+        <v>6.241229217092898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.119641311654068</v>
+        <v>5.759966422689415</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.991593178986921</v>
+        <v>5.908927332681422</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.419662971860726</v>
+        <v>5.247974417318812</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>10.9774407120702</v>
+        <v>9.570848132064054</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>-3.407589326830493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.73556833211509</v>
+        <v>-2.735568332115093</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2471908439271983</v>
@@ -1243,7 +1243,7 @@
         <v>-0.1944051353396453</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1657335646293962</v>
+        <v>-0.1657335646293964</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.000199609863131</v>
+        <v>-5.749938911612204</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.169272610313003</v>
+        <v>-3.767990221363251</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.856323283746594</v>
+        <v>-6.440843278111467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.68988851249162</v>
+        <v>-5.541355250601795</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3931622029490892</v>
+        <v>-0.3949625214069161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2443284787170326</v>
+        <v>-0.2300867814054485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3089543543040855</v>
+        <v>-0.3279182618661141</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3061360928058288</v>
+        <v>-0.3013291757482264</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.8612524881556564</v>
+        <v>-0.7208240131301694</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.784794009412862</v>
+        <v>1.673097882446178</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.8948477229186971</v>
+        <v>-0.7458018874770264</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.1932492499588267</v>
+        <v>-0.1949064552137257</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.05914472054017728</v>
+        <v>-0.05735240054540618</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1274373548573508</v>
+        <v>0.1170122789061614</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.05219544556356138</v>
+        <v>-0.04037666235201432</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.01022145896694579</v>
+        <v>-0.01257104076871654</v>
       </c>
     </row>
     <row r="25">
